--- a/biology/Médecine/Kneipp_GmbH/Kneipp_GmbH.xlsx
+++ b/biology/Médecine/Kneipp_GmbH/Kneipp_GmbH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kneipp GmbH est un fabricant de produits de naturopathie dont le siège se situe à Wurtzbourg (Bavière). La société a été fondée en 1891 par Sebastian Kneipp. Aujourd'hui, elle est une filiale à 100 % de Hartmann Gruppe.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1891, le prêtre catholique Kneipp distribue chez le pharmacien Leonhard Oberhäußer des produits pharmaceutiques et cosmétiques. Le premier produit commercialisé sous le nom de "Kneipp" est des pilules contre la constipation, vendu en 1897 par le pharmarcien Engel à Wurtzbourg.
 Après la mort de Sebastian Kneipp, Leonhard Oberhäußer continue l'entreprise. Puis après la mort de l'autre fondateur, son fils Hermann lui succède en 1920, reprend la fabrication et la distribution dans les pharmacies.
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kneipp GmbH fabrique des produits de hygiène du corps : des produits de bain ou de soin du corps (crèmes et onguents), d'herboristerie, des compléments alimentaires...
 À Ochsenfurt-Hohestadt, on fabrique les produits solides, semi-solides et liquides tandis qu'à Bad Wörishofen, ce sont les sels et les autres produits de bain.
